--- a/Z_MOMOSE/waypoint.xlsx
+++ b/Z_MOMOSE/waypoint.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81809\OneDrive\ドキュメント\GitHub\drone\Z_MOMOSE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Students\Documents\GitHub\drone\Z_MOMOSE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2C6CB1-7A88-4F0C-933A-FA33F8F9C2B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="12855" windowWidth="23250" windowHeight="12450" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1_15" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1_15d3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
   <si>
     <t>x_wp</t>
     <phoneticPr fontId="1"/>
@@ -41,8 +42,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -57,6 +58,12 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="HGGothicE"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -395,16 +402,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -418,7 +425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>0</v>
       </c>
@@ -432,9 +439,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="B3">
         <v>-0.1</v>
@@ -446,9 +453,9 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>0.2</v>
@@ -460,9 +467,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="B5">
         <v>0.3</v>
@@ -474,9 +481,9 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>0.60000000000000009</v>
@@ -488,9 +495,9 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="B7">
         <v>0.9</v>
@@ -502,9 +509,9 @@
         <v>1.4000000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>1.1000000000000001</v>
@@ -516,9 +523,9 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9">
-        <v>14</v>
+        <v>10.5</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -530,9 +537,9 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>0.8</v>
@@ -544,9 +551,9 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11">
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="B11">
         <v>0.30000000000000004</v>
@@ -558,9 +565,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B12">
         <v>-0.2</v>
@@ -572,9 +579,9 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13">
-        <v>22</v>
+        <v>16.5</v>
       </c>
       <c r="B13">
         <v>-0.30000000000000004</v>
@@ -586,9 +593,9 @@
         <v>0.70000000000000007</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -600,9 +607,9 @@
         <v>0.60000000000000009</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15">
-        <v>26</v>
+        <v>19.5</v>
       </c>
       <c r="B15">
         <v>0.4</v>
@@ -614,9 +621,9 @@
         <v>0.70000000000000007</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -628,9 +635,9 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17">
-        <v>30</v>
+        <v>22.5</v>
       </c>
       <c r="B17">
         <v>1.2000000000000002</v>
@@ -642,9 +649,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0.8</v>
@@ -656,9 +663,9 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19">
-        <v>34</v>
+        <v>25.5</v>
       </c>
       <c r="B19">
         <v>0.30000000000000004</v>
@@ -670,9 +677,9 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B20">
         <v>-0.2</v>
@@ -684,9 +691,9 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21">
-        <v>38</v>
+        <v>28.5</v>
       </c>
       <c r="B21">
         <v>-0.70000000000000007</v>
@@ -698,9 +705,9 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B22">
         <v>-0.60000000000000009</v>
@@ -712,9 +719,9 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23">
-        <v>42</v>
+        <v>31.5</v>
       </c>
       <c r="B23">
         <v>-0.4</v>
@@ -726,9 +733,9 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B24">
         <v>-0.3</v>
@@ -740,12 +747,12 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25">
-        <v>46</v>
+        <v>34.5</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C25">
         <v>-0.2</v>
@@ -754,9 +761,9 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -771,6 +778,768 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="262" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="262" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D26"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>-0.15000000000000002</v>
+      </c>
+      <c r="C3">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="D3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="C4">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="C5">
+        <v>0.90000000000000013</v>
+      </c>
+      <c r="D5">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0.90000000000000013</v>
+      </c>
+      <c r="C6">
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="D6">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>1.35</v>
+      </c>
+      <c r="C7">
+        <v>1.05</v>
+      </c>
+      <c r="D7">
+        <v>1.4000000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>1.6500000000000001</v>
+      </c>
+      <c r="C8">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="D8">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>1.5</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="C10">
+        <v>-0.60000000000000009</v>
+      </c>
+      <c r="D10">
+        <v>1.2000000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>0.45000000000000007</v>
+      </c>
+      <c r="C11">
+        <v>-1.2000000000000002</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>-0.30000000000000004</v>
+      </c>
+      <c r="C12">
+        <v>-1.35</v>
+      </c>
+      <c r="D12">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>-0.45000000000000007</v>
+      </c>
+      <c r="C13">
+        <v>-1.05</v>
+      </c>
+      <c r="D13">
+        <v>0.70000000000000007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>24</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>-0.75</v>
+      </c>
+      <c r="D14">
+        <v>0.60000000000000009</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>26</v>
+      </c>
+      <c r="B15">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="C15">
+        <v>-0.90000000000000013</v>
+      </c>
+      <c r="D15">
+        <v>0.70000000000000007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>28</v>
+      </c>
+      <c r="B16">
+        <v>1.5</v>
+      </c>
+      <c r="C16">
+        <v>-0.90000000000000013</v>
+      </c>
+      <c r="D16">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>30</v>
+      </c>
+      <c r="B17">
+        <v>1.8000000000000003</v>
+      </c>
+      <c r="C17">
+        <v>-0.30000000000000004</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>32</v>
+      </c>
+      <c r="B18">
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="C18">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="D18">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>34</v>
+      </c>
+      <c r="B19">
+        <v>0.45000000000000007</v>
+      </c>
+      <c r="C19">
+        <v>0.90000000000000013</v>
+      </c>
+      <c r="D19">
+        <v>1.2000000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>36</v>
+      </c>
+      <c r="B20">
+        <v>-0.30000000000000004</v>
+      </c>
+      <c r="C20">
+        <v>1.05</v>
+      </c>
+      <c r="D20">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>38</v>
+      </c>
+      <c r="B21">
+        <v>-1.05</v>
+      </c>
+      <c r="C21">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="D21">
+        <v>1.2000000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>40</v>
+      </c>
+      <c r="B22">
+        <v>-0.90000000000000013</v>
+      </c>
+      <c r="C22">
+        <v>-0.90000000000000013</v>
+      </c>
+      <c r="D22">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>42</v>
+      </c>
+      <c r="B23">
+        <v>-0.60000000000000009</v>
+      </c>
+      <c r="C23">
+        <v>-0.89999999999999991</v>
+      </c>
+      <c r="D23">
+        <v>1.2000000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>44</v>
+      </c>
+      <c r="B24">
+        <v>-0.44999999999999996</v>
+      </c>
+      <c r="C24">
+        <v>-0.60000000000000009</v>
+      </c>
+      <c r="D24">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>46</v>
+      </c>
+      <c r="B25">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="C25">
+        <v>-0.30000000000000004</v>
+      </c>
+      <c r="D25">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>48</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="262" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>-0.15000000000000002</v>
+      </c>
+      <c r="C3">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="D3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="C4">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="C5">
+        <v>0.90000000000000013</v>
+      </c>
+      <c r="D5">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>0.90000000000000013</v>
+      </c>
+      <c r="C6">
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="D6">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>1.35</v>
+      </c>
+      <c r="C7">
+        <v>1.05</v>
+      </c>
+      <c r="D7">
+        <v>1.4000000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>1.6500000000000001</v>
+      </c>
+      <c r="C8">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="D8">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>21</v>
+      </c>
+      <c r="B9">
+        <v>1.5</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>24</v>
+      </c>
+      <c r="B10">
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="C10">
+        <v>-0.60000000000000009</v>
+      </c>
+      <c r="D10">
+        <v>1.2000000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>27</v>
+      </c>
+      <c r="B11">
+        <v>0.45000000000000007</v>
+      </c>
+      <c r="C11">
+        <v>-1.2000000000000002</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>30</v>
+      </c>
+      <c r="B12">
+        <v>-0.30000000000000004</v>
+      </c>
+      <c r="C12">
+        <v>-1.35</v>
+      </c>
+      <c r="D12">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>33</v>
+      </c>
+      <c r="B13">
+        <v>-0.45000000000000007</v>
+      </c>
+      <c r="C13">
+        <v>-1.05</v>
+      </c>
+      <c r="D13">
+        <v>0.70000000000000007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>36</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>-0.75</v>
+      </c>
+      <c r="D14">
+        <v>0.60000000000000009</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>39</v>
+      </c>
+      <c r="B15">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="C15">
+        <v>-0.90000000000000013</v>
+      </c>
+      <c r="D15">
+        <v>0.70000000000000007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>42</v>
+      </c>
+      <c r="B16">
+        <v>1.5</v>
+      </c>
+      <c r="C16">
+        <v>-0.90000000000000013</v>
+      </c>
+      <c r="D16">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>45</v>
+      </c>
+      <c r="B17">
+        <v>1.8000000000000003</v>
+      </c>
+      <c r="C17">
+        <v>-0.30000000000000004</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>48</v>
+      </c>
+      <c r="B18">
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="C18">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="D18">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>51</v>
+      </c>
+      <c r="B19">
+        <v>0.45000000000000007</v>
+      </c>
+      <c r="C19">
+        <v>0.90000000000000013</v>
+      </c>
+      <c r="D19">
+        <v>1.2000000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>54</v>
+      </c>
+      <c r="B20">
+        <v>-0.30000000000000004</v>
+      </c>
+      <c r="C20">
+        <v>1.05</v>
+      </c>
+      <c r="D20">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>57</v>
+      </c>
+      <c r="B21">
+        <v>-1.05</v>
+      </c>
+      <c r="C21">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="D21">
+        <v>1.2000000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>60</v>
+      </c>
+      <c r="B22">
+        <v>-0.90000000000000013</v>
+      </c>
+      <c r="C22">
+        <v>-0.90000000000000013</v>
+      </c>
+      <c r="D22">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>63</v>
+      </c>
+      <c r="B23">
+        <v>-0.60000000000000009</v>
+      </c>
+      <c r="C23">
+        <v>-0.89999999999999991</v>
+      </c>
+      <c r="D23">
+        <v>1.2000000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>66</v>
+      </c>
+      <c r="B24">
+        <v>-0.44999999999999996</v>
+      </c>
+      <c r="C24">
+        <v>-0.60000000000000009</v>
+      </c>
+      <c r="D24">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>69</v>
+      </c>
+      <c r="B25">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="C25">
+        <v>-0.30000000000000004</v>
+      </c>
+      <c r="D25">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>72</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="262" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>